--- a/com.sevenmart/src/main/resources/ExcelFiles/DeliveryBoyData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/DeliveryBoyData.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gopik\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E96C94-D799-4461-B564-F220BEAF9267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDDD55D-FE25-41A8-9369-70421704253D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="9075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AlreadyExistingUserDetails" sheetId="1" r:id="rId1"/>
+    <sheet name="SearchExistingDeliveryBoy" sheetId="3" r:id="rId1"/>
+    <sheet name="SearchNonExistingDeliveryBoy" sheetId="4" r:id="rId2"/>
+    <sheet name="NewDeliveryBoy" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,25 +27,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>navya</t>
-  </si>
-  <si>
-    <t>navya@gmail</t>
-  </si>
-  <si>
-    <t>gokulam</t>
-  </si>
-  <si>
-    <t>usernm</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mail</t>
+  </si>
+  <si>
+    <t>leena@gmail.com</t>
+  </si>
+  <si>
+    <t>asdfg</t>
+  </si>
+  <si>
+    <t>fgty</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>aa@gmail.com</t>
+  </si>
+  <si>
+    <t>weqrt</t>
+  </si>
+  <si>
+    <t>lkit</t>
+  </si>
+  <si>
+    <t>ddfg</t>
+  </si>
+  <si>
+    <t>ddfg@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +94,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,14 +123,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -364,44 +457,145 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1D33B2-4B8E-4593-A761-1A5EED080005}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>123</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB2543E-03FB-4578-B74B-EF001DFC52E9}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>8111</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>654</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5648123</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{E5F61BA2-7F8F-41C2-84FE-0A46DC80AAB3}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7EC594E3-17CF-493A-86B9-A0463A6F9E00}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187388C3-387E-41EE-B609-35402B50873F}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1452874</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{FBF0E308-B0B9-4DD2-8309-B819B2276F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.sevenmart/src/main/resources/ExcelFiles/DeliveryBoyData.xlsx
+++ b/com.sevenmart/src/main/resources/ExcelFiles/DeliveryBoyData.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\repository\com.sevenmart\src\main\resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDDD55D-FE25-41A8-9369-70421704253D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9F0291-3A00-412B-8B5F-8A415F5F8519}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17280" windowHeight="9075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15090" windowHeight="2730" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchExistingDeliveryBoy" sheetId="3" r:id="rId1"/>
     <sheet name="SearchNonExistingDeliveryBoy" sheetId="4" r:id="rId2"/>
     <sheet name="NewDeliveryBoy" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,28 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mail</t>
-  </si>
-  <si>
-    <t>leena@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>asdfg</t>
   </si>
@@ -56,22 +35,16 @@
     <t>fgty</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>aa@gmail.com</t>
-  </si>
-  <si>
-    <t>weqrt</t>
-  </si>
-  <si>
     <t>lkit</t>
   </si>
   <si>
-    <t>ddfg</t>
+    <t>user1</t>
   </si>
   <si>
-    <t>ddfg@gmail.com</t>
+    <t>user1@gmail.com</t>
+  </si>
+  <si>
+    <t>juy</t>
   </si>
 </sst>
 </file>
@@ -115,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,19 +111,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -164,9 +124,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -176,6 +133,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -460,36 +420,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1D33B2-4B8E-4593-A761-1A5EED080005}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3">
-        <v>123</v>
-      </c>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -504,38 +454,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB2543E-03FB-4578-B74B-EF001DFC52E9}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5648123</v>
-      </c>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{7EC594E3-17CF-493A-86B9-A0463A6F9E00}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -544,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187388C3-387E-41EE-B609-35402B50873F}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,49 +488,37 @@
     <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1452874</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1452874</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{FBF0E308-B0B9-4DD2-8309-B819B2276F73}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{FBF0E308-B0B9-4DD2-8309-B819B2276F73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
